--- a/Single DAO Result/MNT results_output.xlsx
+++ b/Single DAO Result/MNT results_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.002890580159337665</v>
+        <v>0.0008648815362470563</v>
       </c>
     </row>
     <row r="3">
@@ -457,47 +457,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3721720462873739</v>
+        <v>0.3755227917463383</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Community</t>
+          <t>Develop</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6918553696969529</v>
+        <v>-0.6012693742656064</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Develop</t>
+          <t>Gov</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4952588497916485</v>
+        <v>0.5143481302001043</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Gov</t>
+          <t>Treasury_MarketCap</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4734232886846195</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Market Cap</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.8565937210888035</v>
+        <v>0.411678856215465</v>
       </c>
     </row>
   </sheetData>
